--- a/medicine/Psychotrope/Château_Citran/Château_Citran.xlsx
+++ b/medicine/Psychotrope/Château_Citran/Château_Citran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Citran</t>
+          <t>Château_Citran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château Citran est un château et un domaine viticole du Haut-Médoc. Il est situé à Avensan, près de Margaux. L'ensemble des bâtiments du domaine est inscrit au titre des monuments historiques en 2012[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château Citran est un château et un domaine viticole du Haut-Médoc. Il est situé à Avensan, près de Margaux. L'ensemble des bâtiments du domaine est inscrit au titre des monuments historiques en 2012.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Citran</t>
+          <t>Château_Citran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire du domaine remonte à un château fort du XIIIe siècle qui devient ensuite la seigneurie du marquis de Donnissan (cf. Guy Joseph de Donnissan, marquis de Citran)[2]. 
-En 1832, il est acquis par la famille Clauzel  qui le revend en 1922[3].
-Après 1945, la famille Miailhe replante le domaine qui était tombé en décadence[2]. 
-Le domaine est vendu en 1986 à la compagnie japonaise[2] Touko dépendant de la holding Fujimoto. 
-Le domaine et son château appartiennent depuis 1997 au groupe Taillan[2], dirigé par Jacques Merlaut, qui possède entre autres d'autres vignobles bordelais, comme Château Gruaud-Larose, ou bien est associé aux propriétaires de Château Ferrière, Château Chasse-Spleen et Château Haut-Bages Libéral. Le château Citran est administré par Denis Merlaut.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire du domaine remonte à un château fort du XIIIe siècle qui devient ensuite la seigneurie du marquis de Donnissan (cf. Guy Joseph de Donnissan, marquis de Citran). 
+En 1832, il est acquis par la famille Clauzel  qui le revend en 1922.
+Après 1945, la famille Miailhe replante le domaine qui était tombé en décadence. 
+Le domaine est vendu en 1986 à la compagnie japonaise Touko dépendant de la holding Fujimoto. 
+Le domaine et son château appartiennent depuis 1997 au groupe Taillan, dirigé par Jacques Merlaut, qui possède entre autres d'autres vignobles bordelais, comme Château Gruaud-Larose, ou bien est associé aux propriétaires de Château Ferrière, Château Chasse-Spleen et Château Haut-Bages Libéral. Le château Citran est administré par Denis Merlaut.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Citran</t>
+          <t>Château_Citran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Domaine viticole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Château Citran est un domaine viticole du Haut-Médoc classé cru bourgeois en 2010, qui appartient à l'Alliance des crus bourgeois du Médoc. Sur la propriété de 410 hectares, 90 hectares sont consacrés à la vigne[4].
-Il produit un second vin intitulé Les Moulins de Citran[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Château Citran est un domaine viticole du Haut-Médoc classé cru bourgeois en 2010, qui appartient à l'Alliance des crus bourgeois du Médoc. Sur la propriété de 410 hectares, 90 hectares sont consacrés à la vigne.
+Il produit un second vin intitulé Les Moulins de Citran.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Citran</t>
+          <t>Château_Citran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château actuel a été rebâti entre 1861 et 1864 par l'architecte Pierre-Charles Brun, à l'emplacement du château médiéval entouré de douves[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château actuel a été rebâti entre 1861 et 1864 par l'architecte Pierre-Charles Brun, à l'emplacement du château médiéval entouré de douves.
 </t>
         </is>
       </c>
